--- a/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="286">
   <si>
     <t>PERIOD</t>
   </si>
@@ -878,9 +878,6 @@
     <t>UT(0-1-2)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-11)</t>
   </si>
   <si>
@@ -888,6 +885,12 @@
   </si>
   <si>
     <t>UT(0-1-3)</t>
+  </si>
+  <si>
+    <t>UT(0-0-16)</t>
+  </si>
+  <si>
+    <t>UT(0-0-10)</t>
   </si>
 </sst>
 </file>
@@ -1588,8 +1591,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K496" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K496"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K499" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K499"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1918,12 +1921,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K496"/>
+  <dimension ref="A2:K499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A430" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E442" sqref="E442"/>
+      <pane ySplit="3720" topLeftCell="A441" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G460" sqref="G460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2091,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>201.80400000000003</v>
+        <v>202.50000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2098,7 +2101,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>235.04200000000003</v>
+        <v>237.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11452,61 +11455,59 @@
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
       <c r="K433" s="49">
-        <v>44776</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B434" s="20"/>
-      <c r="C434" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D434" s="39"/>
+      <c r="A434" s="40"/>
+      <c r="B434" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C434" s="13"/>
+      <c r="D434" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E434" s="9"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G434" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H434" s="39"/>
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
-      <c r="K434" s="20"/>
+      <c r="K434" s="49"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="C435" s="13">
         <v>1.25</v>
       </c>
-      <c r="D435" s="39"/>
+      <c r="D435" s="39">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E435" s="9"/>
       <c r="F435" s="20"/>
       <c r="G435" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H435" s="39">
-        <v>1</v>
-      </c>
+      <c r="H435" s="39"/>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="K435" s="20"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B436" s="20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C436" s="13">
         <v>1.25</v>
@@ -11518,69 +11519,75 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H436" s="39"/>
+      <c r="H436" s="39">
+        <v>1</v>
+      </c>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
       <c r="K436" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="40"/>
+      <c r="A437" s="40">
+        <v>44713</v>
+      </c>
       <c r="B437" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C437" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="C437" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D437" s="39"/>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H437" s="39">
-        <v>11</v>
-      </c>
+      <c r="G437" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H437" s="39"/>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
       <c r="K437" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C438" s="13"/>
-      <c r="D438" s="39">
-        <v>0.13100000000000001</v>
-      </c>
+      <c r="D438" s="39"/>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
       <c r="G438" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H438" s="39"/>
+      <c r="H438" s="39">
+        <v>11</v>
+      </c>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="20"/>
+      <c r="K438" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B439" s="20"/>
-      <c r="C439" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D439" s="39"/>
+      <c r="A439" s="40"/>
+      <c r="B439" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C439" s="13"/>
+      <c r="D439" s="39">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G439" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H439" s="39"/>
       <c r="I439" s="9"/>
@@ -11589,17 +11596,13 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B440" s="20" t="s">
-        <v>282</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B440" s="20"/>
       <c r="C440" s="13">
         <v>1.25</v>
       </c>
-      <c r="D440" s="39">
-        <v>2.3000000000000007E-2</v>
-      </c>
+      <c r="D440" s="39"/>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
       <c r="G440" s="13">
@@ -11613,16 +11616,16 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="C441" s="13">
         <v>1.25</v>
       </c>
       <c r="D441" s="39">
-        <v>1</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="E441" s="9"/>
       <c r="F441" s="20"/>
@@ -11633,16 +11636,14 @@
       <c r="H441" s="39"/>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="49">
-        <v>44825</v>
-      </c>
+      <c r="K441" s="20"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B442" s="20" t="s">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="C442" s="13">
         <v>1.25</v>
@@ -11660,22 +11661,18 @@
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
       <c r="K442" s="49">
-        <v>44844</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B443" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>44835</v>
+      </c>
+      <c r="B443" s="20"/>
       <c r="C443" s="13">
         <v>1.25</v>
       </c>
-      <c r="D443" s="39">
-        <v>1</v>
-      </c>
+      <c r="D443" s="39"/>
       <c r="E443" s="9"/>
       <c r="F443" s="20"/>
       <c r="G443" s="13">
@@ -11685,83 +11682,89 @@
       <c r="H443" s="39"/>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="49">
-        <v>44876</v>
-      </c>
+      <c r="K443" s="49"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="40"/>
+      <c r="A444" s="40">
+        <v>44866</v>
+      </c>
       <c r="B444" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C444" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="C444" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D444" s="39">
-        <v>0.129</v>
+        <v>1</v>
       </c>
       <c r="E444" s="9"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G444" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H444" s="39"/>
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
-      <c r="K444" s="49"/>
+      <c r="K444" s="49">
+        <v>44876</v>
+      </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C445" s="13">
-        <v>1.25</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C445" s="13"/>
       <c r="D445" s="39">
-        <v>1</v>
+        <v>0.129</v>
       </c>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H445" s="39"/>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="49">
-        <v>44914</v>
-      </c>
+      <c r="K445" s="49"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="40"/>
+      <c r="A446" s="40">
+        <v>44896</v>
+      </c>
       <c r="B446" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C446" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="C446" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D446" s="39">
-        <v>0.23500000000000001</v>
+        <v>1</v>
       </c>
       <c r="E446" s="9"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G446" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H446" s="39"/>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
-      <c r="K446" s="49"/>
+      <c r="K446" s="49">
+        <v>44914</v>
+      </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B447" s="20"/>
+      <c r="A447" s="40"/>
+      <c r="B447" s="20" t="s">
+        <v>279</v>
+      </c>
       <c r="C447" s="13"/>
-      <c r="D447" s="39"/>
+      <c r="D447" s="39">
+        <v>0.23500000000000001</v>
+      </c>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
       <c r="G447" s="13" t="str">
@@ -11771,46 +11774,40 @@
       <c r="H447" s="39"/>
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
-      <c r="K447" s="20"/>
+      <c r="K447" s="49"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C448" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D448" s="39"/>
+        <v>207</v>
+      </c>
+      <c r="C448" s="13"/>
+      <c r="D448" s="39">
+        <v>2</v>
+      </c>
       <c r="E448" s="9"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G448" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H448" s="39"/>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="49">
-        <v>44937</v>
-      </c>
+      <c r="K448" s="49"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="40">
-        <v>44958</v>
+      <c r="A449" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="B449" s="20"/>
-      <c r="C449" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C449" s="13"/>
       <c r="D449" s="39"/>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G449" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H449" s="39"/>
       <c r="I449" s="9"/>
@@ -11819,9 +11816,11 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B450" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B450" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C450" s="13">
         <v>1.25</v>
       </c>
@@ -11835,15 +11834,15 @@
       <c r="H450" s="39"/>
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
-      <c r="K450" s="20"/>
+      <c r="K450" s="49">
+        <v>44937</v>
+      </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B451" s="20" t="s">
-        <v>126</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B451" s="20"/>
       <c r="C451" s="13">
         <v>1.25</v>
       </c>
@@ -11857,13 +11856,11 @@
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="49">
-        <v>45050</v>
-      </c>
+      <c r="K451" s="20"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13">
@@ -11883,95 +11880,103 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B453" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C453" s="13"/>
+      <c r="C453" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D453" s="39"/>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G453" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H453" s="39"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
       <c r="K453" s="49">
-        <v>45097</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B454" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C454" s="13"/>
+        <v>45047</v>
+      </c>
+      <c r="B454" s="20"/>
+      <c r="C454" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D454" s="39"/>
       <c r="E454" s="9"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H454" s="39">
-        <v>2</v>
-      </c>
+      <c r="G454" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H454" s="39"/>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="K454" s="20"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="40"/>
+      <c r="A455" s="40">
+        <v>45078</v>
+      </c>
       <c r="B455" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C455" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="C455" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D455" s="39"/>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H455" s="39">
-        <v>5</v>
-      </c>
+      <c r="G455" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H455" s="39"/>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="20" t="s">
-        <v>278</v>
+      <c r="K455" s="49">
+        <v>45097</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B456" s="20"/>
-      <c r="C456" s="13"/>
+        <v>45108</v>
+      </c>
+      <c r="B456" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C456" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D456" s="39"/>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H456" s="39"/>
+      <c r="G456" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H456" s="39">
+        <v>2</v>
+      </c>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="20"/>
+      <c r="K456" s="20" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B457" s="20"/>
+      <c r="A457" s="40"/>
+      <c r="B457" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="C457" s="13"/>
       <c r="D457" s="39"/>
       <c r="E457" s="9"/>
@@ -11980,36 +11985,52 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H457" s="39"/>
+      <c r="H457" s="39">
+        <v>5</v>
+      </c>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="20"/>
+      <c r="K457" s="20" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B458" s="20"/>
-      <c r="C458" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B458" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C458" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D458" s="39"/>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H458" s="39"/>
+      <c r="G458" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H458" s="39">
+        <v>1</v>
+      </c>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="20"/>
+      <c r="K458" s="49">
+        <v>45161</v>
+      </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B459" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B459" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C459" s="13"/>
-      <c r="D459" s="39"/>
+      <c r="D459" s="39">
+        <v>1</v>
+      </c>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
       <c r="G459" s="13" t="str">
@@ -12019,15 +12040,19 @@
       <c r="H459" s="39"/>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="20"/>
+      <c r="K459" s="49">
+        <v>45176</v>
+      </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B460" s="20"/>
+      <c r="A460" s="40"/>
+      <c r="B460" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C460" s="13"/>
-      <c r="D460" s="39"/>
+      <c r="D460" s="39">
+        <v>1</v>
+      </c>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
       <c r="G460" s="13" t="str">
@@ -12037,11 +12062,13 @@
       <c r="H460" s="39"/>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="20"/>
+      <c r="K460" s="49">
+        <v>45190</v>
+      </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -12059,7 +12086,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -12077,7 +12104,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12095,7 +12122,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12113,7 +12140,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12131,7 +12158,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12149,7 +12176,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12167,7 +12194,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12185,7 +12212,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12203,7 +12230,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12221,7 +12248,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12239,7 +12266,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12257,7 +12284,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12275,7 +12302,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12293,7 +12320,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12311,7 +12338,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12329,7 +12356,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12347,7 +12374,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12365,7 +12392,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12383,7 +12410,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12401,7 +12428,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12419,7 +12446,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12437,7 +12464,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12455,7 +12482,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12473,7 +12500,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12491,7 +12518,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12508,7 +12535,9 @@
       <c r="K486" s="20"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" s="40"/>
+      <c r="A487" s="40">
+        <v>45992</v>
+      </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
       <c r="D487" s="39"/>
@@ -12524,7 +12553,9 @@
       <c r="K487" s="20"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" s="40"/>
+      <c r="A488" s="40">
+        <v>46023</v>
+      </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
       <c r="D488" s="39"/>
@@ -12540,7 +12571,9 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="40"/>
+      <c r="A489" s="40">
+        <v>46054</v>
+      </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
       <c r="D489" s="39"/>
@@ -12652,20 +12685,68 @@
       <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="41"/>
-      <c r="B496" s="15"/>
-      <c r="C496" s="42"/>
-      <c r="D496" s="43"/>
+      <c r="A496" s="40"/>
+      <c r="B496" s="20"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="39"/>
       <c r="E496" s="9"/>
-      <c r="F496" s="15"/>
-      <c r="G496" s="42" t="str">
+      <c r="F496" s="20"/>
+      <c r="G496" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H496" s="43"/>
+      <c r="H496" s="39"/>
       <c r="I496" s="9"/>
-      <c r="J496" s="12"/>
-      <c r="K496" s="15"/>
+      <c r="J496" s="11"/>
+      <c r="K496" s="20"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497" s="40"/>
+      <c r="B497" s="20"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="39"/>
+      <c r="E497" s="9"/>
+      <c r="F497" s="20"/>
+      <c r="G497" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H497" s="39"/>
+      <c r="I497" s="9"/>
+      <c r="J497" s="11"/>
+      <c r="K497" s="20"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498" s="40"/>
+      <c r="B498" s="20"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="39"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="20"/>
+      <c r="G498" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H498" s="39"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="11"/>
+      <c r="K498" s="20"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499" s="41"/>
+      <c r="B499" s="15"/>
+      <c r="C499" s="42"/>
+      <c r="D499" s="43"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="15"/>
+      <c r="G499" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H499" s="43"/>
+      <c r="I499" s="9"/>
+      <c r="J499" s="12"/>
+      <c r="K499" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12778,14 +12859,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.13100000000000001</v>
+        <v>2.1000000000000005E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="290">
   <si>
     <t>PERIOD</t>
   </si>
@@ -897,6 +897,12 @@
   </si>
   <si>
     <t>12/13,14/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-2-31)</t>
   </si>
 </sst>
 </file>
@@ -1597,8 +1603,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K500" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K500"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K505" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K505"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1927,12 +1933,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K500"/>
+  <dimension ref="A2:K505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A444" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K463" sqref="K463"/>
+      <selection pane="bottomLeft" activeCell="F462" sqref="F462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,7 +2103,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>204.25000000000006</v>
+        <v>205.01500000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2107,7 +2113,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>241.04200000000003</v>
+        <v>242.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12001,65 +12007,59 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C458" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D458" s="39"/>
+        <v>117</v>
+      </c>
+      <c r="C458" s="13"/>
+      <c r="D458" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H458" s="39">
-        <v>1</v>
-      </c>
+      <c r="G458" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="49">
-        <v>45161</v>
-      </c>
+      <c r="K458" s="20"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C459" s="13">
         <v>1.25</v>
       </c>
-      <c r="D459" s="39">
-        <v>1</v>
-      </c>
+      <c r="D459" s="39"/>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
       <c r="G459" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H459" s="39"/>
+      <c r="H459" s="39">
+        <v>1</v>
+      </c>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
       <c r="K459" s="49">
-        <v>45176</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C460" s="13"/>
       <c r="D460" s="39">
-        <v>1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
@@ -12070,85 +12070,87 @@
       <c r="H460" s="39"/>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="49">
-        <v>45190</v>
-      </c>
+      <c r="K460" s="49"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="40"/>
+      <c r="A461" s="40">
+        <v>45170</v>
+      </c>
       <c r="B461" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C461" s="13"/>
-      <c r="D461" s="39"/>
+        <v>88</v>
+      </c>
+      <c r="C461" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D461" s="39">
+        <v>1</v>
+      </c>
       <c r="E461" s="9"/>
       <c r="F461" s="20"/>
-      <c r="G461" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H461" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="G461" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H461" s="39"/>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
       <c r="K461" s="49">
-        <v>45198</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B462" s="20"/>
-      <c r="C462" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D462" s="39"/>
+      <c r="A462" s="40"/>
+      <c r="B462" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C462" s="13"/>
+      <c r="D462" s="39">
+        <v>1</v>
+      </c>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G462" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H462" s="39"/>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="20"/>
+      <c r="K462" s="49">
+        <v>45190</v>
+      </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C463" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D463" s="39">
-        <v>2</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C463" s="13"/>
+      <c r="D463" s="39"/>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H463" s="39"/>
+      <c r="G463" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H463" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="20" t="s">
-        <v>287</v>
+      <c r="K463" s="49">
+        <v>45198</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B464" s="20"/>
+      <c r="A464" s="40"/>
+      <c r="B464" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C464" s="13"/>
-      <c r="D464" s="39"/>
+      <c r="D464" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
       <c r="G464" s="13" t="str">
@@ -12158,20 +12160,22 @@
       <c r="H464" s="39"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
+      <c r="K464" s="49"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B465" s="20"/>
-      <c r="C465" s="13"/>
+      <c r="C465" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D465" s="39"/>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G465" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H465" s="39"/>
       <c r="I465" s="9"/>
@@ -12180,29 +12184,39 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B466" s="20"/>
-      <c r="C466" s="13"/>
-      <c r="D466" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B466" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D466" s="39">
+        <v>2</v>
+      </c>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H466" s="39"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="20"/>
+      <c r="K466" s="20" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B467" s="20"/>
+      <c r="A467" s="40"/>
+      <c r="B467" s="20" t="s">
+        <v>285</v>
+      </c>
       <c r="C467" s="13"/>
-      <c r="D467" s="39"/>
+      <c r="D467" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E467" s="9"/>
       <c r="F467" s="20"/>
       <c r="G467" s="13" t="str">
@@ -12216,16 +12230,22 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B468" s="20"/>
-      <c r="C468" s="13"/>
-      <c r="D468" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B468" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D468" s="39">
+        <v>0.315</v>
+      </c>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G468" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H468" s="39"/>
       <c r="I468" s="9"/>
@@ -12233,8 +12253,8 @@
       <c r="K468" s="20"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" s="40">
-        <v>45413</v>
+      <c r="A469" s="48" t="s">
+        <v>288</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12252,7 +12272,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12270,7 +12290,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12288,7 +12308,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12306,7 +12326,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12324,7 +12344,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12342,7 +12362,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12360,7 +12380,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12378,7 +12398,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12396,7 +12416,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12414,7 +12434,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12432,7 +12452,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12450,7 +12470,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12468,7 +12488,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12486,7 +12506,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12504,7 +12524,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12522,7 +12542,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12540,7 +12560,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12558,7 +12578,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12576,7 +12596,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12594,7 +12614,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12612,7 +12632,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12629,7 +12649,9 @@
       <c r="K490" s="20"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="40"/>
+      <c r="A491" s="40">
+        <v>45931</v>
+      </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
       <c r="D491" s="39"/>
@@ -12645,7 +12667,9 @@
       <c r="K491" s="20"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="40"/>
+      <c r="A492" s="40">
+        <v>45962</v>
+      </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
@@ -12661,7 +12685,9 @@
       <c r="K492" s="20"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="40"/>
+      <c r="A493" s="40">
+        <v>45992</v>
+      </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
       <c r="D493" s="39"/>
@@ -12677,7 +12703,9 @@
       <c r="K493" s="20"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="40"/>
+      <c r="A494" s="40">
+        <v>46023</v>
+      </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
@@ -12693,7 +12721,9 @@
       <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="40"/>
+      <c r="A495" s="40">
+        <v>46054</v>
+      </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
       <c r="D495" s="39"/>
@@ -12773,20 +12803,100 @@
       <c r="K499" s="20"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="41"/>
-      <c r="B500" s="15"/>
-      <c r="C500" s="42"/>
-      <c r="D500" s="43"/>
+      <c r="A500" s="40"/>
+      <c r="B500" s="20"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="39"/>
       <c r="E500" s="9"/>
-      <c r="F500" s="15"/>
-      <c r="G500" s="42" t="str">
+      <c r="F500" s="20"/>
+      <c r="G500" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H500" s="43"/>
+      <c r="H500" s="39"/>
       <c r="I500" s="9"/>
-      <c r="J500" s="12"/>
-      <c r="K500" s="15"/>
+      <c r="J500" s="11"/>
+      <c r="K500" s="20"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501" s="40"/>
+      <c r="B501" s="20"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="39"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="20"/>
+      <c r="G501" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H501" s="39"/>
+      <c r="I501" s="9"/>
+      <c r="J501" s="11"/>
+      <c r="K501" s="20"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" s="40"/>
+      <c r="B502" s="20"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="39"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="20"/>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H502" s="39"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="11"/>
+      <c r="K502" s="20"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A503" s="40"/>
+      <c r="B503" s="20"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="39"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="20"/>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H503" s="39"/>
+      <c r="I503" s="9"/>
+      <c r="J503" s="11"/>
+      <c r="K503" s="20"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A504" s="40"/>
+      <c r="B504" s="20"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="39"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="20"/>
+      <c r="G504" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H504" s="39"/>
+      <c r="I504" s="9"/>
+      <c r="J504" s="11"/>
+      <c r="K504" s="20"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" s="41"/>
+      <c r="B505" s="15"/>
+      <c r="C505" s="42"/>
+      <c r="D505" s="43"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="15"/>
+      <c r="G505" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H505" s="43"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="12"/>
+      <c r="K505" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12833,7 +12943,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12898,15 +13008,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.1000000000000005E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -903,6 +903,9 @@
   </si>
   <si>
     <t>UT(0-2-31)</t>
+  </si>
+  <si>
+    <t>1/22,23/2024</t>
   </si>
 </sst>
 </file>
@@ -1603,8 +1606,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K505" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K505"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K506"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1933,12 +1936,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K505"/>
+  <dimension ref="A2:K506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A444" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A453" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F462" sqref="F462"/>
+      <selection pane="bottomLeft" activeCell="K471" sqref="K471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2116,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>242.29200000000003</v>
+        <v>240.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12274,7 +12277,9 @@
       <c r="A470" s="40">
         <v>45292</v>
       </c>
-      <c r="B470" s="20"/>
+      <c r="B470" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C470" s="13"/>
       <c r="D470" s="39"/>
       <c r="E470" s="9"/>
@@ -12283,16 +12288,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H470" s="39"/>
+      <c r="H470" s="39">
+        <v>2</v>
+      </c>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
-      <c r="K470" s="20"/>
+      <c r="K470" s="20" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B471" s="20"/>
+      <c r="A471" s="40"/>
+      <c r="B471" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C471" s="13"/>
       <c r="D471" s="39"/>
       <c r="E471" s="9"/>
@@ -12304,11 +12313,13 @@
       <c r="H471" s="39"/>
       <c r="I471" s="9"/>
       <c r="J471" s="11"/>
-      <c r="K471" s="20"/>
+      <c r="K471" s="49">
+        <v>45320</v>
+      </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12326,7 +12337,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12344,7 +12355,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12362,7 +12373,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12380,7 +12391,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12398,7 +12409,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12416,7 +12427,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12434,7 +12445,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12452,7 +12463,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12470,7 +12481,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12488,7 +12499,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12506,7 +12517,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12524,7 +12535,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12542,7 +12553,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12560,7 +12571,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12578,7 +12589,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12596,7 +12607,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12614,7 +12625,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12632,7 +12643,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12650,7 +12661,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12668,7 +12679,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12686,7 +12697,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12704,7 +12715,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12722,7 +12733,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12739,7 +12750,9 @@
       <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="40"/>
+      <c r="A496" s="40">
+        <v>46054</v>
+      </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
       <c r="D496" s="39"/>
@@ -12883,20 +12896,36 @@
       <c r="K504" s="20"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" s="41"/>
-      <c r="B505" s="15"/>
-      <c r="C505" s="42"/>
-      <c r="D505" s="43"/>
+      <c r="A505" s="40"/>
+      <c r="B505" s="20"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="39"/>
       <c r="E505" s="9"/>
-      <c r="F505" s="15"/>
-      <c r="G505" s="42" t="str">
+      <c r="F505" s="20"/>
+      <c r="G505" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H505" s="43"/>
+      <c r="H505" s="39"/>
       <c r="I505" s="9"/>
-      <c r="J505" s="12"/>
-      <c r="K505" s="15"/>
+      <c r="J505" s="11"/>
+      <c r="K505" s="20"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506" s="41"/>
+      <c r="B506" s="15"/>
+      <c r="C506" s="42"/>
+      <c r="D506" s="43"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="15"/>
+      <c r="G506" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H506" s="43"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="12"/>
+      <c r="K506" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="295">
   <si>
     <t>PERIOD</t>
   </si>
@@ -906,6 +906,18 @@
   </si>
   <si>
     <t>1/22,23/2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-52)</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1618,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K506"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K509" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K509"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1936,12 +1948,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K506"/>
+  <dimension ref="A2:K509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A453" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A441" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K471" sqref="K471"/>
+      <selection pane="bottomLeft" activeCell="F456" sqref="F456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2118,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>205.01500000000007</v>
+        <v>203.59300000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11854,34 +11866,38 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B451" s="20"/>
-      <c r="C451" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D451" s="39"/>
+      <c r="A451" s="40"/>
+      <c r="B451" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C451" s="13"/>
+      <c r="D451" s="39">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G451" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="20"/>
+      <c r="K451" s="49"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B452" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B452" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="C452" s="13">
         <v>1.25</v>
       </c>
-      <c r="D452" s="39"/>
+      <c r="D452" s="39">
+        <v>7.1000000000000008E-2</v>
+      </c>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
       <c r="G452" s="13">
@@ -11895,15 +11911,17 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B453" s="20" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="C453" s="13">
         <v>1.25</v>
       </c>
-      <c r="D453" s="39"/>
+      <c r="D453" s="39">
+        <v>1</v>
+      </c>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
       <c r="G453" s="13">
@@ -11914,32 +11932,32 @@
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
       <c r="K453" s="49">
-        <v>45050</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B454" s="20"/>
-      <c r="C454" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D454" s="39"/>
+      <c r="A454" s="40"/>
+      <c r="B454" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C454" s="13"/>
+      <c r="D454" s="39">
+        <v>0.10800000000000001</v>
+      </c>
       <c r="E454" s="9"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G454" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H454" s="39"/>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="20"/>
+      <c r="K454" s="49"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B455" s="20" t="s">
         <v>126</v>
@@ -11958,65 +11976,65 @@
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
       <c r="K455" s="49">
-        <v>45097</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B456" s="20" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="C456" s="13">
         <v>1.25</v>
       </c>
-      <c r="D456" s="39"/>
+      <c r="D456" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
       <c r="G456" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H456" s="39">
-        <v>2</v>
-      </c>
+      <c r="H456" s="39"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="K456" s="20"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="40"/>
+      <c r="A457" s="40">
+        <v>45078</v>
+      </c>
       <c r="B457" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C457" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="C457" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D457" s="39"/>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H457" s="39">
-        <v>5</v>
-      </c>
+      <c r="G457" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H457" s="39"/>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="20" t="s">
-        <v>278</v>
+      <c r="K457" s="49">
+        <v>45097</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="C458" s="13"/>
       <c r="D458" s="39">
-        <v>6.7000000000000004E-2</v>
+        <v>6.0000000000000019E-2</v>
       </c>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
@@ -12027,14 +12045,14 @@
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="20"/>
+      <c r="K458" s="49"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C459" s="13">
         <v>1.25</v>
@@ -12047,178 +12065,180 @@
         <v>1.25</v>
       </c>
       <c r="H459" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="49">
-        <v>45161</v>
+      <c r="K459" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="C460" s="13"/>
-      <c r="D460" s="39">
-        <v>6.5000000000000002E-2</v>
-      </c>
+      <c r="D460" s="39"/>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
       <c r="G460" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H460" s="39"/>
+      <c r="H460" s="39">
+        <v>5</v>
+      </c>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="49"/>
+      <c r="K460" s="20" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C461" s="13">
-        <v>1.25</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C461" s="13"/>
       <c r="D461" s="39">
-        <v>1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E461" s="9"/>
       <c r="F461" s="20"/>
-      <c r="G461" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G461" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H461" s="39"/>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="49">
-        <v>45176</v>
-      </c>
+      <c r="K461" s="20"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="40"/>
+      <c r="A462" s="40">
+        <v>45139</v>
+      </c>
       <c r="B462" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C462" s="13"/>
-      <c r="D462" s="39">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D462" s="39"/>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H462" s="39"/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H462" s="39">
+        <v>1</v>
+      </c>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
       <c r="K462" s="49">
-        <v>45190</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="C463" s="13"/>
-      <c r="D463" s="39"/>
+      <c r="D463" s="39">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
       <c r="G463" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H463" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="49">
-        <v>45198</v>
-      </c>
+      <c r="K463" s="49"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="40"/>
+      <c r="A464" s="40">
+        <v>45170</v>
+      </c>
       <c r="B464" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C464" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="C464" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D464" s="39">
-        <v>1.7000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G464" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H464" s="39"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="49"/>
+      <c r="K464" s="49">
+        <v>45176</v>
+      </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B465" s="20"/>
-      <c r="C465" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D465" s="39"/>
+      <c r="A465" s="40"/>
+      <c r="B465" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C465" s="13"/>
+      <c r="D465" s="39">
+        <v>1</v>
+      </c>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G465" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H465" s="39"/>
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
-      <c r="K465" s="20"/>
+      <c r="K465" s="49">
+        <v>45190</v>
+      </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C466" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D466" s="39">
-        <v>2</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C466" s="13"/>
+      <c r="D466" s="39"/>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H466" s="39"/>
+      <c r="G466" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H466" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="20" t="s">
-        <v>287</v>
+      <c r="K466" s="49">
+        <v>45198</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="C467" s="13"/>
       <c r="D467" s="39">
-        <v>2.1000000000000005E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E467" s="9"/>
       <c r="F467" s="20"/>
@@ -12229,21 +12249,17 @@
       <c r="H467" s="39"/>
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
-      <c r="K467" s="20"/>
+      <c r="K467" s="49"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B468" s="20" t="s">
-        <v>289</v>
-      </c>
+        <v>45200</v>
+      </c>
+      <c r="B468" s="20"/>
       <c r="C468" s="13">
         <v>1.25</v>
       </c>
-      <c r="D468" s="39">
-        <v>0.315</v>
-      </c>
+      <c r="D468" s="39"/>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
       <c r="G468" s="13">
@@ -12256,70 +12272,78 @@
       <c r="K468" s="20"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="B469" s="20"/>
-      <c r="C469" s="13"/>
-      <c r="D469" s="39"/>
+      <c r="A469" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B469" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D469" s="39">
+        <v>2</v>
+      </c>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H469" s="39"/>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
-      <c r="K469" s="20"/>
+      <c r="K469" s="20" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="C470" s="13"/>
-      <c r="D470" s="39"/>
+      <c r="D470" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E470" s="9"/>
       <c r="F470" s="20"/>
       <c r="G470" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H470" s="39">
-        <v>2</v>
-      </c>
+      <c r="H470" s="39"/>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
-      <c r="K470" s="20" t="s">
-        <v>290</v>
-      </c>
+      <c r="K470" s="20"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="40"/>
+      <c r="A471" s="40">
+        <v>45261</v>
+      </c>
       <c r="B471" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C471" s="13"/>
-      <c r="D471" s="39"/>
+        <v>289</v>
+      </c>
+      <c r="C471" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D471" s="39">
+        <v>0.315</v>
+      </c>
       <c r="E471" s="9"/>
       <c r="F471" s="20"/>
-      <c r="G471" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G471" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H471" s="39"/>
       <c r="I471" s="9"/>
       <c r="J471" s="11"/>
-      <c r="K471" s="49">
-        <v>45320</v>
-      </c>
+      <c r="K471" s="20"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="40">
-        <v>45323</v>
+      <c r="A472" s="48" t="s">
+        <v>288</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12337,9 +12361,11 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B473" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B473" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C473" s="13"/>
       <c r="D473" s="39"/>
       <c r="E473" s="9"/>
@@ -12348,16 +12374,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H473" s="39"/>
+      <c r="H473" s="39">
+        <v>2</v>
+      </c>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
+      <c r="K473" s="20" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B474" s="20"/>
+      <c r="A474" s="40"/>
+      <c r="B474" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C474" s="13"/>
       <c r="D474" s="39"/>
       <c r="E474" s="9"/>
@@ -12369,11 +12399,13 @@
       <c r="H474" s="39"/>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
-      <c r="K474" s="20"/>
+      <c r="K474" s="49">
+        <v>45320</v>
+      </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12391,7 +12423,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12409,7 +12441,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12427,7 +12459,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12445,7 +12477,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12463,7 +12495,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12481,7 +12513,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12499,7 +12531,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12517,7 +12549,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12535,7 +12567,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12553,7 +12585,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12571,7 +12603,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12589,7 +12621,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12607,7 +12639,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12625,7 +12657,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12643,7 +12675,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12661,7 +12693,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12679,7 +12711,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12697,7 +12729,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12715,7 +12747,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12733,7 +12765,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12751,7 +12783,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12768,7 +12800,9 @@
       <c r="K496" s="20"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="40"/>
+      <c r="A497" s="40">
+        <v>45992</v>
+      </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
       <c r="D497" s="39"/>
@@ -12784,7 +12818,9 @@
       <c r="K497" s="20"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="40"/>
+      <c r="A498" s="40">
+        <v>46023</v>
+      </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
       <c r="D498" s="39"/>
@@ -12800,7 +12836,9 @@
       <c r="K498" s="20"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="40"/>
+      <c r="A499" s="40">
+        <v>46054</v>
+      </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
       <c r="D499" s="39"/>
@@ -12912,20 +12950,68 @@
       <c r="K505" s="20"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="41"/>
-      <c r="B506" s="15"/>
-      <c r="C506" s="42"/>
-      <c r="D506" s="43"/>
+      <c r="A506" s="40"/>
+      <c r="B506" s="20"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39"/>
       <c r="E506" s="9"/>
-      <c r="F506" s="15"/>
-      <c r="G506" s="42" t="str">
+      <c r="F506" s="20"/>
+      <c r="G506" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H506" s="43"/>
+      <c r="H506" s="39"/>
       <c r="I506" s="9"/>
-      <c r="J506" s="12"/>
-      <c r="K506" s="15"/>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A507" s="40"/>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="39"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="20"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H507" s="39"/>
+      <c r="I507" s="9"/>
+      <c r="J507" s="11"/>
+      <c r="K507" s="20"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" s="40"/>
+      <c r="B508" s="20"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="39"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="20"/>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H508" s="39"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="11"/>
+      <c r="K508" s="20"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509" s="41"/>
+      <c r="B509" s="15"/>
+      <c r="C509" s="42"/>
+      <c r="D509" s="43"/>
+      <c r="E509" s="9"/>
+      <c r="F509" s="15"/>
+      <c r="G509" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H509" s="43"/>
+      <c r="I509" s="9"/>
+      <c r="J509" s="12"/>
+      <c r="K509" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12972,7 +13058,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13037,13 +13123,15 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
       <c r="F3" s="11">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.7000000000000004E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
